--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABD/20/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABD/20/seed5/result_data_RandomForest.xlsx
@@ -471,7 +471,7 @@
         <v>-10.94</v>
       </c>
       <c r="D2" t="n">
-        <v>-7.379400000000001</v>
+        <v>-7.384100000000001</v>
       </c>
       <c r="E2" t="n">
         <v>17.25</v>
@@ -482,13 +482,13 @@
         <v>-21.82</v>
       </c>
       <c r="B3" t="n">
-        <v>6.440200000000003</v>
+        <v>6.421800000000004</v>
       </c>
       <c r="C3" t="n">
         <v>-12.16</v>
       </c>
       <c r="D3" t="n">
-        <v>-7.217399999999995</v>
+        <v>-7.092199999999997</v>
       </c>
       <c r="E3" t="n">
         <v>17.78</v>
@@ -499,7 +499,7 @@
         <v>-19.84</v>
       </c>
       <c r="B4" t="n">
-        <v>8.885799999999996</v>
+        <v>8.8498</v>
       </c>
       <c r="C4" t="n">
         <v>-13.95</v>
@@ -590,7 +590,7 @@
         <v>-11.36</v>
       </c>
       <c r="D9" t="n">
-        <v>-7.434199999999995</v>
+        <v>-7.198099999999998</v>
       </c>
       <c r="E9" t="n">
         <v>17.64</v>
@@ -615,7 +615,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-21.6566</v>
+        <v>-21.83710000000001</v>
       </c>
       <c r="B11" t="n">
         <v>3.8</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.5932</v>
+        <v>-21.59890000000001</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -669,7 +669,7 @@
         <v>-22.38</v>
       </c>
       <c r="B14" t="n">
-        <v>6.979599999999996</v>
+        <v>6.615299999999994</v>
       </c>
       <c r="C14" t="n">
         <v>-11.3</v>
@@ -683,7 +683,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-22.0546</v>
+        <v>-21.91459999999999</v>
       </c>
       <c r="B15" t="n">
         <v>5.32</v>
@@ -692,7 +692,7 @@
         <v>-13.12</v>
       </c>
       <c r="D15" t="n">
-        <v>-8.184299999999993</v>
+        <v>-8.220899999999995</v>
       </c>
       <c r="E15" t="n">
         <v>16.67</v>
@@ -760,7 +760,7 @@
         <v>-12.15</v>
       </c>
       <c r="D19" t="n">
-        <v>-7.337899999999999</v>
+        <v>-7.373699999999999</v>
       </c>
       <c r="E19" t="n">
         <v>16.87</v>
@@ -777,7 +777,7 @@
         <v>-14.88</v>
       </c>
       <c r="D20" t="n">
-        <v>-7.195199999999999</v>
+        <v>-7.238300000000004</v>
       </c>
       <c r="E20" t="n">
         <v>16.97</v>
@@ -862,7 +862,7 @@
         <v>-11.07</v>
       </c>
       <c r="D25" t="n">
-        <v>-7.8264</v>
+        <v>-7.874400000000005</v>
       </c>
       <c r="E25" t="n">
         <v>16.01</v>
@@ -873,7 +873,7 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>3.948400000000004</v>
+        <v>3.959500000000005</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -887,7 +887,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-21.8191</v>
+        <v>-21.8558</v>
       </c>
       <c r="B27" t="n">
         <v>5.54</v>
@@ -896,7 +896,7 @@
         <v>-11.92</v>
       </c>
       <c r="D27" t="n">
-        <v>-8.961199999999996</v>
+        <v>-9.068499999999997</v>
       </c>
       <c r="E27" t="n">
         <v>15.34</v>
@@ -904,7 +904,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-21.83029999999999</v>
+        <v>-21.73560000000001</v>
       </c>
       <c r="B28" t="n">
         <v>5.47</v>
@@ -913,7 +913,7 @@
         <v>-11.8</v>
       </c>
       <c r="D28" t="n">
-        <v>-8.0594</v>
+        <v>-8.250399999999999</v>
       </c>
       <c r="E28" t="n">
         <v>16.42</v>
@@ -947,7 +947,7 @@
         <v>-10.71</v>
       </c>
       <c r="D30" t="n">
-        <v>-7.358700000000003</v>
+        <v>-7.425500000000002</v>
       </c>
       <c r="E30" t="n">
         <v>16.57</v>
@@ -955,10 +955,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-21.55839999999999</v>
+        <v>-21.64400000000002</v>
       </c>
       <c r="B31" t="n">
-        <v>4.654600000000004</v>
+        <v>4.362300000000004</v>
       </c>
       <c r="C31" t="n">
         <v>-11.3</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.36110000000001</v>
+        <v>-21.43490000000001</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -981,7 +981,7 @@
         <v>-10.55</v>
       </c>
       <c r="D32" t="n">
-        <v>-9.144399999999987</v>
+        <v>-8.963599999999991</v>
       </c>
       <c r="E32" t="n">
         <v>15.18</v>
@@ -1026,7 +1026,7 @@
         <v>-19.24</v>
       </c>
       <c r="B35" t="n">
-        <v>8.882100000000001</v>
+        <v>8.948600000000001</v>
       </c>
       <c r="C35" t="n">
         <v>-13.02</v>
@@ -1040,7 +1040,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-20.3413</v>
+        <v>-20.01769999999999</v>
       </c>
       <c r="B36" t="n">
         <v>9.84</v>
@@ -1060,7 +1060,7 @@
         <v>-19.97</v>
       </c>
       <c r="B37" t="n">
-        <v>8.556700000000003</v>
+        <v>8.657500000000004</v>
       </c>
       <c r="C37" t="n">
         <v>-12.29</v>
@@ -1074,7 +1074,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-19.5443</v>
+        <v>-19.4947</v>
       </c>
       <c r="B38" t="n">
         <v>9.66</v>
@@ -1094,7 +1094,7 @@
         <v>-18.76</v>
       </c>
       <c r="B39" t="n">
-        <v>9.078000000000001</v>
+        <v>9.051399999999999</v>
       </c>
       <c r="C39" t="n">
         <v>-10.58</v>
@@ -1111,7 +1111,7 @@
         <v>-19.21</v>
       </c>
       <c r="B40" t="n">
-        <v>9.346899999999998</v>
+        <v>9.490699999999997</v>
       </c>
       <c r="C40" t="n">
         <v>-12.94</v>
@@ -1185,7 +1185,7 @@
         <v>-10.47</v>
       </c>
       <c r="D44" t="n">
-        <v>-7.224700000000001</v>
+        <v>-7.4324</v>
       </c>
       <c r="E44" t="n">
         <v>16.52</v>
@@ -1196,7 +1196,7 @@
         <v>-22.15</v>
       </c>
       <c r="B45" t="n">
-        <v>6.346299999999998</v>
+        <v>5.8781</v>
       </c>
       <c r="C45" t="n">
         <v>-11</v>
@@ -1210,7 +1210,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-21.4637</v>
+        <v>-21.5868</v>
       </c>
       <c r="B46" t="n">
         <v>4.17</v>
@@ -1236,7 +1236,7 @@
         <v>-11.84</v>
       </c>
       <c r="D47" t="n">
-        <v>-7.561400000000001</v>
+        <v>-7.559099999999997</v>
       </c>
       <c r="E47" t="n">
         <v>17.05</v>
@@ -1315,7 +1315,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>5.2959</v>
+        <v>5.5959</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1346,7 +1346,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-21.69009999999999</v>
+        <v>-21.6025</v>
       </c>
       <c r="B54" t="n">
         <v>6.01</v>
@@ -1363,7 +1363,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.33540000000002</v>
+        <v>-22.3244</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1380,7 +1380,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-22.0729</v>
+        <v>-22.0789</v>
       </c>
       <c r="B56" t="n">
         <v>4.42</v>
@@ -1400,7 +1400,7 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>4.842099999999997</v>
+        <v>4.766199999999995</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
@@ -1423,7 +1423,7 @@
         <v>-15.6</v>
       </c>
       <c r="D58" t="n">
-        <v>-8.376199999999992</v>
+        <v>-8.164999999999994</v>
       </c>
       <c r="E58" t="n">
         <v>16.91</v>
@@ -1491,7 +1491,7 @@
         <v>-14.53</v>
       </c>
       <c r="D62" t="n">
-        <v>-8.486499999999992</v>
+        <v>-8.404499999999992</v>
       </c>
       <c r="E62" t="n">
         <v>16.65</v>
@@ -1567,7 +1567,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-21.53449999999997</v>
+        <v>-21.49739999999997</v>
       </c>
       <c r="B67" t="n">
         <v>5.53</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.73169999999998</v>
+        <v>-21.72379999999997</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-21.97169999999999</v>
+        <v>-21.8968</v>
       </c>
       <c r="B72" t="n">
         <v>6.81</v>
@@ -1669,7 +1669,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-19.788</v>
+        <v>-19.72170000000001</v>
       </c>
       <c r="B73" t="n">
         <v>10.24</v>
@@ -1746,7 +1746,7 @@
         <v>-9.57</v>
       </c>
       <c r="D77" t="n">
-        <v>-5.668499999999999</v>
+        <v>-5.6921</v>
       </c>
       <c r="E77" t="n">
         <v>17.96</v>
@@ -1763,7 +1763,7 @@
         <v>-13.33</v>
       </c>
       <c r="D78" t="n">
-        <v>-7.613400000000004</v>
+        <v>-7.366200000000005</v>
       </c>
       <c r="E78" t="n">
         <v>17.28</v>
@@ -1808,7 +1808,7 @@
         <v>-22.03</v>
       </c>
       <c r="B81" t="n">
-        <v>5.8872</v>
+        <v>5.391900000000001</v>
       </c>
       <c r="C81" t="n">
         <v>-11.36</v>
@@ -1839,10 +1839,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.6157</v>
+        <v>-21.58629999999999</v>
       </c>
       <c r="B83" t="n">
-        <v>5.986000000000002</v>
+        <v>6.487900000000001</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
@@ -1865,7 +1865,7 @@
         <v>-12.28</v>
       </c>
       <c r="D84" t="n">
-        <v>-8.471299999999999</v>
+        <v>-8.780900000000001</v>
       </c>
       <c r="E84" t="n">
         <v>16.54</v>
@@ -1890,7 +1890,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-21.8581</v>
+        <v>-22.0219</v>
       </c>
       <c r="B86" t="n">
         <v>4.69</v>
@@ -1950,7 +1950,7 @@
         <v>-10.11</v>
       </c>
       <c r="D89" t="n">
-        <v>-6.2352</v>
+        <v>-6.388299999999996</v>
       </c>
       <c r="E89" t="n">
         <v>19.73</v>
@@ -1975,7 +1975,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-21.45420000000002</v>
+        <v>-21.47060000000002</v>
       </c>
       <c r="B91" t="n">
         <v>4.28</v>
@@ -1984,7 +1984,7 @@
         <v>-10.09</v>
       </c>
       <c r="D91" t="n">
-        <v>-6.193599999999999</v>
+        <v>-6.329299999999996</v>
       </c>
       <c r="E91" t="n">
         <v>19.72</v>
@@ -2001,7 +2001,7 @@
         <v>-9.49</v>
       </c>
       <c r="D92" t="n">
-        <v>-6.1808</v>
+        <v>-6.232599999999998</v>
       </c>
       <c r="E92" t="n">
         <v>19.64</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.4291</v>
+        <v>-21.34229999999999</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
@@ -2069,7 +2069,7 @@
         <v>-10.59</v>
       </c>
       <c r="D96" t="n">
-        <v>-7.428300000000005</v>
+        <v>-7.457400000000004</v>
       </c>
       <c r="E96" t="n">
         <v>16.3</v>
@@ -2111,7 +2111,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-20.31519999999999</v>
+        <v>-20.31429999999999</v>
       </c>
       <c r="B99" t="n">
         <v>8.42</v>
@@ -2131,7 +2131,7 @@
         <v>-21.66</v>
       </c>
       <c r="B100" t="n">
-        <v>5.752999999999997</v>
+        <v>5.920799999999997</v>
       </c>
       <c r="C100" t="n">
         <v>-14.32</v>
@@ -2165,13 +2165,13 @@
         <v>-20.36</v>
       </c>
       <c r="B102" t="n">
-        <v>8.158000000000005</v>
+        <v>8.273300000000001</v>
       </c>
       <c r="C102" t="n">
         <v>-12</v>
       </c>
       <c r="D102" t="n">
-        <v>-7.988000000000003</v>
+        <v>-8.090500000000002</v>
       </c>
       <c r="E102" t="n">
         <v>16.08</v>
